--- a/biology/Zoologie/Efferia/Efferia.xlsx
+++ b/biology/Zoologie/Efferia/Efferia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Effeira est un genre d'insectes diptères prédateurs de la famille des Asilidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (3 août 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (3 août 2020) :
 Efferia aestuans (Linnaeus, 1763)
 Efferia albibarbis (Macquart, 1838)
 Efferia anacapai (Wilcox &amp; Martin, 1945)
@@ -647,7 +661,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) D. W. Coquillett, « A New Asilid Genus Related to Erax », The Canadian Entomologist, Ottawa, Société d'entomologie du Canada, vol. 25, no 7,‎ 1893 et juillet 1893, p. 175-177 (ISSN 0008-347X et 1918-3240, OCLC 01553087, DOI 10.4039/ENT25175-7, lire en ligne)</t>
         </is>
